--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,15 +55,15 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
@@ -73,61 +73,61 @@
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
@@ -136,12 +136,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -169,10 +169,13 @@
     <t>best</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>learn</t>
   </si>
   <si>
     <t>enjoy</t>
@@ -559,7 +562,7 @@
         <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -667,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +744,13 @@
         <v>42</v>
       </c>
       <c r="K5">
-        <v>0.8064516129032258</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.71875</v>
+        <v>0.734375</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>43</v>
@@ -817,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7096774193548387</v>
+        <v>0.7043010752688172</v>
       </c>
       <c r="C7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K7">
-        <v>0.6981132075471698</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6363636363636364</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K8">
-        <v>0.5667144906743186</v>
+        <v>0.5652797704447633</v>
       </c>
       <c r="L8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6283783783783784</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="D9">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>0.524896265560166</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L9">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>229</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.616504854368932</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>0.5217391304347826</v>
+        <v>0.508298755186722</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5630252100840336</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K11">
-        <v>0.4581967213114754</v>
+        <v>0.4540983606557377</v>
       </c>
       <c r="L11">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M11">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4985507246376812</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C12">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>0.3516819571865443</v>
+        <v>0.3608562691131498</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4698795180722892</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K13">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.40625</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>0.3192771084337349</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3937007874015748</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K15">
-        <v>0.3015873015873016</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L15">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3601895734597156</v>
+        <v>0.359375</v>
       </c>
       <c r="C16">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K16">
-        <v>0.1935483870967742</v>
+        <v>0.234375</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1320,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3483146067415731</v>
+        <v>0.3459715639810427</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>0.1606425702811245</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>209</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1370,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3368421052631579</v>
+        <v>0.2425742574257426</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K18">
-        <v>0.1463628396143734</v>
+        <v>0.1646586345381526</v>
       </c>
       <c r="L18">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>974</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1420,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2673267326732673</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,31 +1438,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K19">
-        <v>0.0792722547108512</v>
+        <v>0.1446099912357581</v>
       </c>
       <c r="L19">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="M19">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1417</v>
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,13 +1470,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2564102564102564</v>
+        <v>0.185</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,31 +1488,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K20">
-        <v>0.04</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>720</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1958762886597938</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,7 +1538,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>156</v>
+        <v>261</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21">
+        <v>0.044</v>
+      </c>
+      <c r="L21">
+        <v>33</v>
+      </c>
+      <c r="M21">
+        <v>35</v>
+      </c>
+      <c r="N21">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1543,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.195</v>
+        <v>0.1702898550724638</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1561,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>161</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1569,25 +1596,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.177536231884058</v>
+        <v>0.161961367013373</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>227</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1595,25 +1622,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1664190193164933</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C24">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="E24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>561</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1621,25 +1648,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1582278481012658</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1647,25 +1674,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1580459770114943</v>
+        <v>0.1214128035320088</v>
       </c>
       <c r="C26">
         <v>55</v>
       </c>
       <c r="D26">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>293</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1673,13 +1700,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1455696202531646</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C27">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1691,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>270</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1699,25 +1726,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1428571428571428</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1725,13 +1752,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1211453744493392</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1743,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>399</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1751,13 +1778,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0821917808219178</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1769,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>335</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1777,25 +1804,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06754530477759473</v>
+        <v>0.06260296540362438</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F31">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1803,25 +1830,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.06473214285714286</v>
+        <v>0.0444104134762634</v>
       </c>
       <c r="C32">
         <v>29</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F32">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>419</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1829,25 +1856,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04695431472081218</v>
+        <v>0.04435994930291508</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F33">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
